--- a/Dataset/update_test_format2.xlsx
+++ b/Dataset/update_test_format2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,3514 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4610</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#837800:598:3952:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3698</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>#497613:389:2104:1110:0#497613:389:2104:1106:0#1052781:389:2104:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>#424417:1431:5574:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4752</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>#870420:389:6938:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>275</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>#809280:1577:2375:0715:3#809280:1577:2375:0715:0#809280:1577:2375:0715:0#809280:1577:2375:0716:0#809280:1577:2375:0716:2#809280:1577:2375:0722:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4894</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>#973333:1188:3952:1106:3#814134:1188:3952:1106:3#973333:1188:3952:1106:0#1101646:1188:7033:1106:3#814134:1188:3952:1106:0#1101646:1188:7033:1106:0#137766:1188:7033:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2844</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>#929056:1438:6464:0716:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>99456</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4044</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>#973753:389:82:1031:0#909094:748:82:1031:0#909094:748:82:1110:0#909094:748:82:1110:0#909094:748:82:1106:0#909094:748:82:1111:0#909094:748:82:1111:0#909094:748:82:1111:2#909094:748:82:1111:0#909094:748:82:1111:0#909094:748:82:1031:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1719</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>#373857:1208:2276:0927:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4198</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>#1079524:1075:2379:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2629</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>#390503:242:8396:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3826</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>#353560:883:2232:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2755</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>#903775:242:3549:1108:0#903775:242:3549:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2620</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>#841473:1397:7103:0927:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>#107407:1208:8411:0905:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4492</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>#621800:1142:6346:0918:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>#739981:1142:837:1111:0#739981:1142:837:1108:0#630600:1142:837:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>#559647:242:8396:1105:0#559647:242:8396:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>#542905:1329:100:0918:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1487</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>#244112:1142:6445:1111:0#671759:1142:6445:1111:0#238029:1142:6445:1111:0#671759:1142:6445:1105:0#250214:1142:6445:1106:0#238029:1142:6445:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4011</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>#222857:300:3464:0906:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>147</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>#397538:1208:6758:0921:0#397538:1208:6758:0917:0#397538:1208:6758:0917:0#397538:1208:6758:0917:0#397538:1208:6758:0917:2#397538:1208:6758:0917:2#397538:1208:6758:0917:2#397538:1208:6758:0917:2#397538:1208:6758:0917:0#397538:1208:6758:0917:0#397538:1208:6758:0917:0#397538:1208:6758:0918:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2177</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>#719426:1102:8395:0922:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>#953404:1553:950:0921:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>#136595:946:875:0921:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>#801860:1142:1446:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4059</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>#332503:1181:2771:0922:0#332503:1181:2771:0922:0#332503:1181:2771:0922:0#332503:1181:2771:0921:0#332503:1181:2771:0921:2#332503:1181:2771:0921:0#332503:1181:2771:0921:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>897</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>#815105:386:946:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>463</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>#661622:178:5513:0922:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>232</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>#856247:1142:7479:1105:0#1055166:1142:7479:1105:0#459187:154:7479:1106:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>799</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>#637964:1208:5803:0927:0#637964:1208:5803:0927:0#730853:1208:5803:0927:0#637964:1208:5803:0927:0#637964:1208:5803:0906:0#404556:1208:5803:0906:2#251654:1208:5803:0906:0#637964:1208:5803:0906:0#404556:1208:5803:0906:0#404556:1208:5803:0906:0#404556:1208:5803:0906:0#404556:1208:5803:0906:0#902972:1208:5803:0906:0#404556:1208:5803:0906:0#637964:1208:5803:0906:0#637964:1208:5803:0906:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3410</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>#497937:242:3549:1111:0#497937:242:3549:1111:2#497937:242:3549:1111:0#28110:242:3549:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>296064</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2658</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>#132512:1431:788:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2746</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>#244652:664:603:0904:0#1096441:466:603:0904:0#1096441:466:603:0901:0#1096441:466:603:0901:0#1096441:466:603:0830:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2332</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>#557704:1213:5243:1025:0#462828:602:5243:1025:0#595842:1208:5243:1111:0#905571:1208:5243:1111:0#1058953:1329:5243:1111:0#905571:1208:5243:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4355</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>#948890:796:3967:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>#87663:602:7452:0823:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2336</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>#633160:602:4382:0904:0#175930:602:4382:0904:0#310633:602:4382:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>#7995:602:7093:0527:0#382813:602:7093:0527:0#382813:602:7093:0615:0#7995:602:7093:0615:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>#267067:1208:2276:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3797</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>#521105:464:4309:0904:0#82341:464:4309:0904:0#153709:464:4309:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1557</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>#969803:1075:1152:0603:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2823</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>#473307:602:1128:0916:0#479385:602:1128:0904:0#384732:602:1128:0904:0#916497:602:1128:0904:0#479385:602:1128:0916:0#656948:602:1128:0916:0#524753:602:1128:0904:0#645070:602:1128:0904:0#565375:602:1128:0904:0#1112499:602:1128:0904:0#169127:602:1128:0904:0#697454:602:1128:0916:0#384732:602:1128:0916:0#367164:602:1128:0916:0#608283:602:1128:0916:0#1093209:602:1128:0531:0#397261:602:1128:0531:0#890431:602:1128:0531:0#308992:602:1128:0531:0#623820:602:1128:0531:0#565375:602:1128:0531:0#466268:602:1128:0531:0#235474:602:1128:0531:0#1061637:602:1128:0531:0#575442:602:1128:0531:0#345059:602:1128:0531:0#623820:602:1128:0531:0#623820:602:1128:0615:0#1093209:602:1128:0916:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2929</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>#632474:602:7911:0522:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>#724005:662:1214:0709:0#515491:1238:1214:0709:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2333</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>#123077:1505:3950:0823:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>#886214:602:3369:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>#107407:1208:8411:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2206</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>#84105:1467:6320:0901:0#84105:1467:6320:0901:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4507</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>#1029975:766:5159:0709:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>420</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>#64173:602:4953:0904:0#668666:602:4953:0904:0#808272:602:4058:0522:0#971758:602:4953:0904:0#887013:602:4953:0522:0#64173:602:4953:0522:0#979168:602:4953:0522:0#257012:602:4953:0904:0#82486:602:4953:0904:0#1035030:602:4953:0904:0#437309:602:4953:0904:0#856407:602:4953:0928:0#913388:602:4953:0928:0#645562:602:4953:0928:0#37432:11:4953:0928:0#19195:602:4953:0904:0#496400:602:4953:0904:0#1079794:602:4953:0904:0#925167:602:4953:0928:0#753843:602:4953:0904:0#574444:602:4953:0904:0#257012:602:4953:0904:0#1016046:602:4953:0904:0#1691:602:4953:0904:0#607393:177:4953:0904:0#574444:602:4953:0904:0#574444:602:4953:0522:0#856407:602:4953:1111:0#645562:602:4953:1111:2#329539:1213:4953:0615:0#659011:602:4953:0615:0#645562:602:4953:0615:0#659011:602:4953:0615:0#329539:1213:4953:0615:0#754747:602:4953:0615:0#33262:602:4953:0615:0#359373:602:4953:0615:0#19195:602:4953:0615:0#262500:602:4953:0615:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4368</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>#406332:1208:6569:1111:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>501</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>#1105308:602:4058:0928:0#550291:602:4058:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4918</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>#995001:1100:3535:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1126</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>#939733:662:5145:0531:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>165504</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2403</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>#662827:602:8417:0904:0#1104186:602:8417:0904:0#745940:602:8417:0904:0#939694:602:8417:0904:0#980852:602:8417:0904:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2591</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>#1019368:602:5120:0609:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>#276655:1397:3751:0525:0#1084557:1397:3751:0525:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>#339774:1467:5683:0609:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>#540040:1271:2333:0523:2#540040:1271:2333:0523:0#540040:1271:2333:0523:0#540040:1271:2333:0523:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3887</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>#57647:1577:48:1018:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4629</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>#528068:1429:2821:0521:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1494</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>#244688:1252:1671:1111:0#244688:1252:1671:1111:2#244688:1252:1671:1111:0#244688:1252:1671:1111:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4171</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>#622468:1197:2828:0530:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1546</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>#627402:601:7683:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4073</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>#114041:1577:4755:0524:0#679725:1429:4755:0524:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>#859804:662:1981:0609:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4560</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>#1008921:1467:4516:0628:3#1008921:1467:4516:0628:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>331</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>#801122:1397:4094:0606:0#801122:1397:4094:0609:0#801122:1397:4094:0530:0#136511:662:4094:0530:0#801122:1397:4094:0530:0#159618:1397:4094:0530:0#873607:1604:4094:0530:0#1087350:1604:4094:0530:0#801122:1397:4094:0609:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>100224</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4816</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>#598878:1271:4722:0525:0#554311:1271:4722:0525:0#237548:1271:4722:0525:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>286</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>#1073539:825:356:1102:0#150807:1208:356:1102:0#684447:1208:356:1102:0#1559:1208:356:1111:0#1559:1208:356:1111:0#1559:1208:356:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>#183638:1553:1446:1111:0#183638:1553:1446:1111:2#764743:1553:1446:1111:2#22682:1095:1446:1111:0#971510:154:1446:1111:0#764743:1553:1446:1111:0#143375:1553:1446:1111:0#183638:1553:1446:1111:0#544223:1553:1446:1111:0#295447:389:1446:1111:0#22682:1095:1446:1111:2#222341:1553:1446:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3507</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>#674858:662:4491:0608:0#36671:662:4491:0608:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4802</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>#1006388:1553:988:1015:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>#11138:662:3182:0609:0#267232:662:3182:0609:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>#59315:1561:4740:1107:0#524039:953:4740:1107:0#634774:67:6762:1107:0#791286:953:4740:1107:0#634774:67:6762:1107:0#104800:641:4740:1107:0#184290:953:4740:1111:2#871492:730:4740:1111:2#21993:641:4740:1111:2#268613:756:4740:1111:2#332466:730:4740:1111:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>#556624:484:5067:0527:0#556624:484:5067:0527:0#7425:484:5067:0527:0#825596:484:5067:0527:0#556624:484:5067:0527:0#825596:484:5067:0527:0#825596:484:5067:0527:0#825596:484:5067:0527:0#825596:484:5067:0527:0#556624:484:5067:0527:0#825596:484:5067:0527:0#825596:484:5067:0527:0#1003163:484:5067:0527:0#825596:484:5067:0527:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4792</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>#1100845:43:6515:1015:0#125862:43:6515:1015:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4218</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>#657486:300:3700:1111:0#737467:598:3700:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4015</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>#973014:854:6762:1107:0#401300:896:1992:1107:0#181197:367:1992:1107:0#226054:756:5106:1107:0#910406:730:4740:1107:0#885163:641:4740:1107:0#910406:730:4740:1107:0#885163:641:4740:1107:0#226054:756:5106:1107:0#973014:854:6762:1107:0#921180:730:6324:1107:0#401300:896:1992:1107:0#885163:641:4740:1107:0#401300:896:1992:1107:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>365</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>#1042404:787:949:0603:0#809131:787:949:0603:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>296832</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>#994003:43:6585:1030:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4497</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>#338150:1577:8315:1009:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3230</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>#1043019:1525:8207:1002:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1704</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>#236928:662:5581:0725:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1718</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>#812479:1577:7833:0704:0#725191:1577:7833:0704:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>696</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>#189509:35:3600:0725:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>#241911:662:5665:0626:0#925883:662:5665:0626:0#705889:1429:5665:0626:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2768</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>#965059:662:7735:0711:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3027</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>#789276:1604:7875:0819:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1501</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>#762467:389:2459:1111:2#762467:389:2459:1111:0#762467:389:2459:1111:0#762467:389:2459:1111:0#762467:389:2459:1111:0#762467:389:2459:1111:0#1109706:1553:2459:1111:0#870776:662:2459:1111:0#586597:1553:2459:1111:0#762467:389:2459:1111:0#478802:389:2459:1111:0#762467:389:2459:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>738</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>#717702:302:2230:0706:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2278</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>#271249:614:6257:0603:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4336</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>#916045:1188:7033:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1781</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>#378381:1661:1571:1002:0#378381:1661:1571:1002:0#378381:1661:1571:1002:2#</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>290</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>#967706:267:7896:1012:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3629</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>#66231:1142:1055:0910:0#857423:1095:1746:0910:0#131681:1129:1055:0910:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2866</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>#250078:737:5402:1025:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2355</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>#433268:602:335:0609:0#1043542:602:335:0609:0#1043542:602:335:0609:0#1043542:602:335:0609:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>#670596:662:1981:0725:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>#1073911:1505:1214:0626:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2894</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>#1028799:1095:4098:1019:0#615769:662:4098:1019:0#223187:662:4098:1019:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4959</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>#254485:737:5849:1029:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3433</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>#630714:387:1018:1019:0#630714:387:1018:0902:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4976</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>#864424:662:6143:0628:0#218916:662:6143:0628:0#572817:662:6143:0628:0#967984:662:6143:0906:0#218916:662:6143:0626:0#1104416:662:6143:0626:0#237485:662:6143:0626:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>#1085557:351:354:0707:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4752</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>#934078:662:6938:0628:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4766</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>#583863:825:4360:1023:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>#1018634:35:2652:0725:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1217</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>#559217:1238:1740:0609:0#559217:1238:1740:0609:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>#36762:267:6326:1023:0#668220:267:6326:1023:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>#33136:1581:865:0816:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2113</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>#532864:737:3398:1028:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>832</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>#249846:1467:3908:1029:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>#186108:1591:1452:1019:3#186108:1591:1452:1019:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4115</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>#764121:407:1933:0826:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2813</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>#313996:1023:5818:0626:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1784</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>#852738:812:7936:0707:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>503</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>#431060:812:4143:0707:0#725254:351:4143:0702:0#725254:351:4143:0702:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>#714670:1505:1446:0628:0#360155:662:1446:0628:0#360155:662:1446:0628:0#360155:662:1446:0628:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>461</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>#416809:1577:1859:1104:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>#511900:1611:2142:1111:0#674137:1438:2142:1111:0#232267:407:2142:0923:2#232267:407:2142:0923:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>#267560:35:1831:0725:0#592579:35:1831:0725:0#592579:35:1831:0725:0#267560:35:1831:0725:0#592579:35:1831:0725:0#592579:35:1831:0725:0#592579:35:1831:0727:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3155</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>#318184:177:5013:1012:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4688</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>#508441:662:4623:0923:0#1037613:1095:4623:0923:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3659</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>#224762:1505:3103:0609:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>#473029:1252:918:0819:0#473029:1252:918:0819:3#</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>824</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>#827876:766:4795:1019:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4919</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>#270502:664:3193:1002:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3106</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>#348160:662:6106:0704:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>33</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>#649596:1505:1519:0703:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2042</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>#851799:1591:6182:1019:0#176888:1591:6182:1019:0#45372:1591:6182:0910:0#367129:1591:6182:0910:0#599372:1591:6182:0910:0#367129:1591:6182:0910:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>#277692:662:3489:1008:0#126625:389:3489:1012:0#787269:389:3489:1012:0#126625:389:3489:1111:0#482696:389:3489:1019:0#1023861:662:3489:0928:0#126625:389:3489:0928:0#787269:389:3489:0928:0#1040688:662:3489:0928:0#430913:389:3489:0928:0#804742:662:3489:0923:0#255193:662:3489:0923:0#126625:389:3489:0925:0#787269:389:3489:0925:0#126625:389:3489:0925:3#787269:389:3489:0925:3#482696:389:3489:0925:3#238183:389:3489:0925:0#482696:389:3489:0925:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3057</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>#826395:1591:3145:0916:0#240906:1591:3145:0916:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>#778547:1349:3650:0901:0#225941:1349:3650:0901:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>#464504:1467:7807:1019:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>215</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>#75348:1238:3969:0605:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>201</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>#603061:1438:3592:1007:0#680937:1438:3592:1007:0#271067:1438:3592:1007:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>#819473:35:2158:0725:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>#304149:1505:5738:0609:3#304149:1505:5738:0609:0#348925:1505:5738:1023:0#304149:1505:5738:1023:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2483</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>#1021392:1577:2879:0605:0#1021392:1577:2879:0605:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2217</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>#798778:1271:3012:0605:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3491</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>#278388:1095:3969:1104:0#218224:1238:3969:1104:0#312399:1238:3969:1104:0#151770:1577:3969:1104:0#361026:1238:3969:1104:0#1030268:1553:3969:1104:0#758070:1553:3969:1104:0#54365:1238:3969:1104:0#996514:1553:3969:1104:0#708400:1238:3969:1104:0#734358:1553:3969:1104:0#708400:1238:3969:1104:0#242619:1238:3969:1104:0#959252:1238:3969:1104:0#816593:1238:3969:1104:0#340850:1577:3969:1104:0#76032:1238:3969:1104:0#218224:1238:3969:1104:0#610464:1238:3969:1104:0#394643:1577:3969:1104:0#29630:1238:3969:1104:0#448362:1238:3969:1104:0#345474:1238:3969:1104:0#146879:1238:3969:1104:0#948226:1238:3969:1104:0#768204:1238:3969:1104:0#1006840:1238:3969:1104:0#210380:1577:3969:1104:0#315617:1238:3969:1104:0#473349:1553:3969:1104:0#525406:1238:3969:1104:0#775541:1238:3969:1104:0#874180:1238:3969:1104:0#452571:1238:3969:1104:0#253603:1238:3969:1104:0#621589:992:3969:1104:0#895240:1142:3969:1104:0#704316:1577:3969:1104:0#432930:1577:3969:0816:0#258120:1238:3969:0816:2#487343:1577:3969:0816:2#92660:1577:3969:0816:0#316118:1238:3969:0816:0#246927:1553:3969:1111:0#218224:1238:3969:1111:2#218224:1238:3969:1111:0#1075127:1238:3969:1111:2#312399:1238:3969:1111:0#312399:1238:3969:1111:0#475343:1238:3969:1111:0#775541:1238:3969:1111:0#258120:1238:3969:0816:0#816593:1238:3969:0816:0#430456:1238:3969:0816:0#688525:1577:3969:0816:0#828438:1577:3969:0816:0#5766:1238:3969:0816:0#688525:1577:3969:0816:0#816593:1238:3969:0816:0#184647:1577:3969:0816:0#901802:1238:3969:0816:0#316118:1238:3969:0816:0#487343:1577:3969:0816:0#258120:1238:3969:0816:0#399552:1591:3969:0816:0#487343:1577:3969:0816:0#118047:1238:3969:0816:0#816593:1238:3969:0816:0#258120:1238:3969:0816:0#5766:1238:3969:0816:0#828438:1577:3969:0816:0#399552:1591:3969:0907:0#844942:1591:3969:0907:0#399552:1591:3969:0811:0#49301:1280:3969:0811:0#909759:1238:3969:0811:0#828438:1577:3969:0811:0#688525:1577:3969:0811:0#316118:1238:3969:0811:0#283309:1577:3969:0811:0#843895:1591:3969:0811:0#430456:1238:3969:0811:0#688525:1577:3969:0811:0#258120:1238:3969:0811:0#974727:387:3969:0811:0#828438:1577:3969:0811:0#844942:1591:3969:0811:0#568392:1238:3969:1108:0#1045244:1238:3969:1108:0#610464:1238:3969:1108:0#1075127:1238:3969:1108:0#988767:1238:3969:1108:0#246927:1553:3969:1108:0#810170:1238:3969:1108:0#312399:1238:3969:1108:0#89923:1238:3969:1108:0#218224:1238:3969:1108:0#264048:748:3969:0626:0#264048:748:3969:0626:0#895691:1505:3969:1029:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>145</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>#569806:833:3462:0711:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>656</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>#262546:737:4465:0928:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3981</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>#94417:1271:1237:0727:0#947038:1271:1237:0727:0#1073509:833:1237:0727:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2441</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>#487730:992:3178:1008:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4490</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>#428983:177:6400:1025:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4963</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>#804458:1397:1991:0713:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2454</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>#438403:351:8471:1021:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1691</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>#66678:1591:1423:0826:0#1100755:1591:1423:0826:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>#554408:614:7993:1104:3#554408:614:7993:1104:0#554408:614:7993:1111:0#209821:614:7993:1022:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2741</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>#1015929:1389:7549:0725:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3511</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>#1011562:662:4254:0609:0#1011562:662:4254:0605:3#1011562:662:4254:0605:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>#84235:602:3924:0702:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3777</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>#263635:1467:5582:1108:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2510</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>#161813:1188:2904:1111:0#331849:598:2904:1111:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>#324929:602:5748:0910:0#459162:602:5748:0910:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4869</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>#722342:1142:2902:1012:0#999257:1142:2902:1012:0#661843:1389:2902:1012:0#393845:1389:2902:1012:0#180497:1389:2902:1012:0#999257:1142:2902:1012:3#84034:1553:2902:1012:0#999257:1142:2902:1012:0#999257:1142:2902:1019:0#287996:489:2902:1014:0#393845:1389:2902:1014:0#999257:1142:2902:1014:0#287996:489:2902:1014:0#287996:489:2902:1014:0#999257:1142:2902:1014:0#999257:1142:2902:1014:0#287996:489:2902:1014:2#180497:1389:2902:1014:0#893176:489:2902:1023:0#</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>166272</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3861</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>#335179:351:4290:0826:0#</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
